--- a/production/Antdrive.xlsx
+++ b/production/Antdrive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D7B1A2-AF3F-4DAB-B5CB-2132FB7C4812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7D0F2737-B4B3-4F19-BEBA-F61750C6A844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Comment</t>
   </si>
@@ -28,18 +28,15 @@
     <t>Designator</t>
   </si>
   <si>
+    <t>Footprint</t>
+  </si>
+  <si>
     <t>LCSC Part</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
     <t>1kΩ</t>
   </si>
   <si>
-    <t>R1, R2, R3, R5, R6, R7</t>
-  </si>
-  <si>
     <t>C21190</t>
   </si>
   <si>
@@ -55,27 +52,30 @@
     <t>C20526</t>
   </si>
   <si>
+    <t>1N4148WS</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
     <t>SOD-323</t>
   </si>
   <si>
+    <t>C2128</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
+    <t>220Ω</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>220Ω</t>
-  </si>
-  <si>
     <t>C22962</t>
   </si>
   <si>
@@ -88,65 +88,95 @@
     <t>C2286</t>
   </si>
   <si>
+    <t>STM32F030F4P6TR</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TSSOP-23</t>
+    <t>C89040</t>
+  </si>
+  <si>
+    <t>10uF</t>
   </si>
   <si>
     <t>C1, C2, C3</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>C19702</t>
   </si>
   <si>
+    <t>HT7533-1</t>
+  </si>
+  <si>
     <t>U5</t>
   </si>
   <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>C14289</t>
+  </si>
+  <si>
+    <t>DRV8848PWPR</t>
+  </si>
+  <si>
     <t>U3</t>
   </si>
   <si>
     <t>TSSOP-16</t>
   </si>
   <si>
-    <t>1N4148WS</t>
-  </si>
-  <si>
-    <t>C2128</t>
-  </si>
-  <si>
-    <t>C14663</t>
-  </si>
-  <si>
-    <t>STM32F030F4P6TR</t>
-  </si>
-  <si>
-    <t>C89040</t>
-  </si>
-  <si>
-    <t>SOT-89-3</t>
-  </si>
-  <si>
-    <t>C14289</t>
-  </si>
-  <si>
-    <t>HT7533-1</t>
-  </si>
-  <si>
-    <t>DRV8848PWPR</t>
-  </si>
-  <si>
     <t>C131079</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>AMS117-5.0</t>
+  </si>
+  <si>
+    <t>TSSOP-20</t>
+  </si>
+  <si>
+    <t>SOT-223-3</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>680Ω</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C6187</t>
+  </si>
+  <si>
+    <t>C23630</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>C23228</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +313,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,23 +686,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,298 +1056,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
-        <v>603</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/production/Antdrive.xlsx
+++ b/production/Antdrive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7D0F2737-B4B3-4F19-BEBA-F61750C6A844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4C62BEB2-5088-466B-A29D-6D8D599052AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive" sheetId="1" r:id="rId1"/>
@@ -20,163 +20,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>C2286</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>C23630</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C19702</t>
+  </si>
+  <si>
+    <t>C1, C2, C3</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C25804</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>C22962</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>220Ω</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C14289</t>
+  </si>
+  <si>
+    <t>SOT-89-3</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>HT7533-1</t>
+  </si>
+  <si>
+    <t>C131079</t>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>DRV8848PWPR</t>
+  </si>
+  <si>
+    <t>C89040</t>
+  </si>
+  <si>
+    <t>TSSOP-20</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>STM32F030F4P6TR</t>
+  </si>
+  <si>
+    <t>C6187</t>
+  </si>
+  <si>
+    <t>SOT-223-3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>AMS117-5.0</t>
+  </si>
+  <si>
+    <t>LCSC Part</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LCSC Part</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C21190</t>
-  </si>
-  <si>
-    <t>MMBT3904</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>C20526</t>
-  </si>
-  <si>
-    <t>1N4148WS</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
-    <t>C2128</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>220Ω</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>C22962</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C2286</t>
-  </si>
-  <si>
-    <t>STM32F030F4P6TR</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>C89040</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C1, C2, C3</t>
-  </si>
-  <si>
-    <t>C19702</t>
-  </si>
-  <si>
-    <t>HT7533-1</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SOT-89-3</t>
-  </si>
-  <si>
-    <t>C14289</t>
-  </si>
-  <si>
-    <t>DRV8848PWPR</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>TSSOP-16</t>
-  </si>
-  <si>
-    <t>C131079</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>AMS117-5.0</t>
-  </si>
-  <si>
-    <t>TSSOP-20</t>
-  </si>
-  <si>
-    <t>SOT-223-3</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>680Ω</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C6187</t>
-  </si>
-  <si>
-    <t>C23630</t>
-  </si>
-  <si>
-    <t>C25804</t>
-  </si>
-  <si>
-    <t>C23228</t>
+    <t>R1, R2, R3, R5, R6, R8</t>
+  </si>
+  <si>
+    <t>KDZ3.3V-RTK/P</t>
+  </si>
+  <si>
+    <t>C155470</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,12 +292,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -688,20 +661,20 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1057,219 +1030,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/production/Antdrive.xlsx
+++ b/production/Antdrive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Antdrive\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4C62BEB2-5088-466B-A29D-6D8D599052AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF83A57-5F96-461B-B55D-5FAAB1403E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antdrive" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>SOD-323</t>
   </si>
@@ -142,19 +142,28 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>R1, R2, R3, R5, R6, R8</t>
-  </si>
-  <si>
     <t>KDZ3.3V-RTK/P</t>
   </si>
   <si>
     <t>C155470</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R6, R8</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>C25803</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -675,6 +684,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1029,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1143,73 +1153,87 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
+      <c r="A11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
